--- a/kiosk_data_2026.xlsx
+++ b/kiosk_data_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jin33\OneDrive\바탕 화면\통계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F11EA7-41E8-4B21-9D5B-52FB1413E5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5622558-BDD4-4C5F-ACE6-FB5E633CAD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38430" yWindow="-120" windowWidth="21840" windowHeight="37920" xr2:uid="{4DB6EE69-250B-4900-99E7-EB938ADF91C1}"/>
+    <workbookView xWindow="9630" yWindow="21480" windowWidth="29040" windowHeight="15720" xr2:uid="{4DB6EE69-250B-4900-99E7-EB938ADF91C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="194">
   <si>
     <t>발생일</t>
   </si>
@@ -99,20 +99,6 @@
   </si>
   <si>
     <t>- NETWORK_FAILURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">김승찬
-LTE 문제인 듯 합니다.
-원격 접속 시 백색화면 확인됨
-라우터 재부팅 중입니다
-라우터 리부팅은 됐으나 리부팅 후에도 씨트롤이 ON/OFF 반복되고 있음
-LTE 신호가 안좋은 듯 합니다
-양진원
-seetrol 정상 접속 정상 전환
-김승찬
-고생 많으셨습니다.
-새해복 많이 받으세요!!
-</t>
   </si>
   <si>
     <t>미출동</t>
@@ -159,11 +145,6 @@
   </si>
   <si>
     <t>전기 이슈</t>
-  </si>
-  <si>
-    <t>황진훈 
-일시적 전기 차단 
-정상화 확인</t>
   </si>
   <si>
     <t>황진훈</t>
@@ -304,14 +285,6 @@
     <t>을지로입구역(벽)</t>
   </si>
   <si>
-    <t>김신후 (매니저/기기운영팀) 
-20분 뒤 도착합니다. 
-황진훈 (리더/상황실) 
-152장 입니다 
-김신후 (매니저/기기운영팀) 
-걸린 지폐제거, 정상화</t>
-  </si>
-  <si>
     <t>신촌역(2호선, 통합)</t>
   </si>
   <si>
@@ -356,26 +329,6 @@
 - KO</t>
   </si>
   <si>
-    <t>황진훈 (리더/상황실) 
-USD 7장 미방출 (편집됨) 
-김신후 (매니저/기기운영팀) 
-30분 정도 걸립니다. 
-황진훈 (리더/상황실) 
-@문유빈 (영어권상담/CX팀)님 
-문유빈 (영어권상담/CX팀) 
-고강 010-5533-5373 
-신한 384-04-494806 
-계좌 이체 요청하셨습니다 
-황진훈 (리더/상황실) 
-넵 
-"4001A,""연속 REJECT 매수 오류""" 
-1,019,915원 이체 완료 
-문유빈 (영어권상담/CX팀) 
-감사합니다 
-김신후 (매니저/기기운영팀) 
-방출테스트, 정상화</t>
-  </si>
-  <si>
     <t>라인프렌즈 스퀘어 성수점</t>
   </si>
   <si>
@@ -387,17 +340,6 @@
   </si>
   <si>
     <t>CU용산아이파크몰점</t>
-  </si>
-  <si>
-    <t xml:space="preserve">황진훈 (리더/상황실) 
-NMS 정상 
-배너 화면에서 멈춤 
-출동 요청 드립니다 
-@박기성 (매니저/기기운영팀) @김신후 (매니저/기기운영팀)님 
-김신후 (매니저/기기운영팀) 
-40분 정도 소요 예정입니다. 
-Pc전원 off&amp;on, 정상화 
-</t>
   </si>
   <si>
     <t>명동 친한 약국</t>
@@ -504,9 +446,6 @@
 -기본테스트 정상작동 (편집됨) 
 전경환 (매니저/기기운영팀) 
 역시 상원님!!</t>
-  </si>
-  <si>
-    <t>전경환</t>
   </si>
   <si>
     <t>(B)(S)롯데백화점 본점 역 연결통로(B1)</t>
@@ -580,19 +519,6 @@
     <t>회현역(통합)</t>
   </si>
   <si>
-    <t>황진훈 (리더/상황실)
-193장 입니다
-@옥진수 (매니저/기기운영팀) 님 처리 요청 드립니다
-옥진수 (매니저/기기운영팀)
-걸린지폐제거. 모듈업데이트. 정상작동 확인
-양진원 (부그룹리더/기술지원팀)
-@김선경 (매니저/기술지원팀) 추가 조치 예정
-김선경 (매니저/기술지원팀) 
-캐쉬박스 교체 및 입수테스트 이상없음 
-예방정비 
-지폐방출기 센서 클리닝 완료</t>
-  </si>
-  <si>
     <t>옥진수</t>
   </si>
   <si>
@@ -654,15 +580,6 @@
     <t>홍대입구역 중앙(매입)</t>
   </si>
   <si>
-    <t>황진훈 (리더/상황실) 
-4장 입니다 
-홍사민 (매니저/기기운영팀) 
-35분정도 예상됩니다 
-걸린지폐 제거후 재적재 
-모듈정상화 
-고객님 사용 이상없음 확인</t>
-  </si>
-  <si>
     <t>홍사민</t>
   </si>
   <si>
@@ -686,22 +603,6 @@
     <t>쁨글로벌의원 강남점</t>
   </si>
   <si>
-    <t>황진훈 (리더/상황실) 
-TMS OFF 
-확인해보겠습니다 
-배너 화면에서 멈춤 증상 &gt; 터치 시 통신 장애 화면 
-TMS 복구 확인 일시적 인터넷 문제 였던거 같습니다. 
-쁨글로벌의원 강남점 
-- D_ID:KD241008000365 
-- USBCamera (USB카메라) 
-- ERR_NOT_OPEN 응용 프로그램에 오류가 있습니다. 
-- 2026-01-02 17:31:09 
-장치 관리자 인식 실패 
-익일 방문 시 조치 하도록 하겠습니다 
-주요지역 보충/수거에 더 신경써주시기 바랍니다. 
-cc. @홍사민 (매니저/기기운영팀) @조영남 (매니저/기기운영팀) 님</t>
-  </si>
-  <si>
     <t>라마다앙코르 부산역(통합)</t>
   </si>
   <si>
@@ -710,45 +611,6 @@
 - KO</t>
   </si>
   <si>
-    <t>황진훈 (리더/상황실) 
-JPY 4장 미방출 입니다 
-@심부경 (영어권상담/CX팀)님 
-@성치훈 (부산지사/기기운영팀)님ㅠ 
-심부경 (영어권상담/CX팀) 
-통화중입니다 
-주장일치합니다 
-황진훈 (리더/상황실) 
-시간 확인해보겠습니다 
-시간은 좀 걸리듯합니다 
-투숙객이 신가요? 
-금액을 프론트에 전달 드려도 되고 계좌 환불도 가능하니 원하시는 걸로 
-심부경 (영어권상담/CX팀) 
-네 확인후 바로 공유하도록 하겠습니다 
-전화번호: 01091008598 
-계좌주 김현성 
-계좌번호:110-349-987404 
-황진훈 (리더/상황실) 
-371,000원 환불 완료 입니다 
-4008A 3번 카세트 매체 없음 또는 픽업 실패 
-@성치훈 (부산지사/기기운영팀)님 계수 중이라 완료 후 처리 예정입니다 
-출발 할 때 시간 공유 부탁드립니다 
-성치훈 (부산지사/기기운영팀) 
-40분후 도착예정입니다 
-1.10장씩 다수 테스트시 1~2장 회수함 인입발생 
-2.기기 정상화 완료 
-3.카세트 사진첨부함 
-황진훈 (리더/상황실) 
-마지막 1~2장이 리젝트함에 빠짐 
-엔화 추가 보충 후 금일은 복귀하겠습니다 
-천원권, 달러 정상 방출 됨 
-예전 엔화 카세트 이슈와 동일하여 공유 드립니다 
-cc. @양진원 (부그룹리더/기술지원팀)님 
-양진원 (부그룹리더/기술지원팀) 
-&lt;HCDM_241125_000047&gt; 
-- 동절기 온도 이슈 encoder motor issue 대응 저온 F/W 적용 했습니다. 
-- 조치 이후 reject 발생에 의한 JPY 카세트 매체 없음 또는 픽업 실패 발생시 멘션 바랍니다. 해결 되지 못할 경우 후속 조치 하도록 하겠습니다. CC: @상황실</t>
-  </si>
-  <si>
     <t>(S)올리브영 서면 타운</t>
   </si>
   <si>
@@ -766,21 +628,6 @@
   </si>
   <si>
     <t>소테츠 스프라지르 동대문</t>
-  </si>
-  <si>
-    <t>황진훈 (리더/상황실) 
-103장 입니다 
-홍사민 (매니저/기기운영팀) 
-1시간여 예상됩니다 
-황진훈 (리더/상황실) 
-혹시 계수 중이시면 놓고 가세요 
-익일 처리하겠습니다 
-조영남 (매니저/기기운영팀) 
-오후계수는 모두 완료됐습니다. (편집됨) 
-홍사민 (매니저/기기운영팀) 
-걸림지폐제거 재적재 
-모듈정상화 
-테스트 이상없음</t>
   </si>
   <si>
     <t>롯데시티호텔 마포</t>
@@ -800,128 +647,762 @@
     <t>경복궁역</t>
   </si>
   <si>
+    <t>지폐방출기 오류</t>
+  </si>
+  <si>
+    <t>- 방출기 멈춤(계좌)
+- EJECT_FINISH 0/0, 0/0, 0/0, 0/0, 0/0, 0/4 
+- WOWCARDB 
+- KO</t>
+  </si>
+  <si>
+    <t>- NONE 40064 0/1, 0/3, 0/9 
+- WOWCARDS 
+- JP</t>
+  </si>
+  <si>
+    <t>박재홍</t>
+  </si>
+  <si>
+    <t>쁨글로벌의원 명동점(우측)</t>
+  </si>
+  <si>
+    <t>- WOWCARD2 (카드방출기2) 
+- 88330203263245100120 
+- CARD_EJECT_ERR 0 [0장 배출후 비정상종료 상태]</t>
+  </si>
+  <si>
+    <t>조광수</t>
+  </si>
+  <si>
+    <t>- ERR_HEAD_UP_SENSOR</t>
+  </si>
+  <si>
+    <t>황진훈 (리더/상황실)
+@배현석 (매니저/기기운영팀) 님
+배현석 (매니저/기기운영팀) 
+종이가 뒤쪽에서 절단되어 나오지 않았음. 
+정상위치 영수증 위치 후 정상작동 확인완료.</t>
+  </si>
+  <si>
+    <t>배현석</t>
+  </si>
+  <si>
+    <t>김승찬
+LTE 문제인 듯 합니다.
+원격 접속 시 백색화면 확인됨
+라우터 재부팅 중입니다
+라우터 리부팅은 됐으나 리부팅 후에도 씨트롤이 ON/OFF 반복되고 있음
+LTE 신호가 안좋은 듯 합니다
+양진원
+seetrol 정상 접속 정상 전환
+김승찬
+고생 많으셨습니다.
+새해복 많이 받으세요!!</t>
+  </si>
+  <si>
+    <t>황진훈
+일시적 전기 차단
+정상화 확인</t>
+  </si>
+  <si>
+    <t>김신후 (매니저/기기운영팀)
+20분 뒤 도착합니다.
+황진훈 (리더/상황실)
+152장 입니다
+김신후 (매니저/기기운영팀)
+걸린 지폐제거, 정상화</t>
+  </si>
+  <si>
+    <t>황진훈 (리더/상황실)
+USD 7장 미방출 (편집됨) 
+김신후 (매니저/기기운영팀)
+30분 정도 걸립니다.
+황진훈 (리더/상황실)
+@문유빈 (영어권상담/CX팀)님
+문유빈 (영어권상담/CX팀)
+고강 010-5533-5373
+신한 384-04-494806
+계좌 이체 요청하셨습니다
+황진훈 (리더/상황실)
+넵
+"4001A,""연속 REJECT 매수 오류"""
+1,019,915원 이체 완료
+문유빈 (영어권상담/CX팀)
+감사합니다
+김신후 (매니저/기기운영팀)
+방출테스트, 정상화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">황진훈 (리더/상황실)
+NMS 정상
+배너 화면에서 멈춤
+출동 요청 드립니다
+@박기성 (매니저/기기운영팀) @김신후 (매니저/기기운영팀)님
+김신후 (매니저/기기운영팀)
+40분 정도 소요 예정입니다.
+Pc전원 off&amp;on, 정상화
+</t>
+  </si>
+  <si>
+    <t>황진훈 (리더/상황실)
+193장 입니다
+@옥진수 (매니저/기기운영팀) 님 처리 요청 드립니다
+옥진수 (매니저/기기운영팀)
+걸린지폐제거. 모듈업데이트. 정상작동 확인
+양진원 (부그룹리더/기술지원팀)
+@김선경 (매니저/기술지원팀) 추가 조치 예정
+김선경 (매니저/기술지원팀)
+캐쉬박스 교체 및 입수테스트 이상없음
+예방정비
+지폐방출기 센서 클리닝 완료</t>
+  </si>
+  <si>
+    <t>황진훈 (리더/상황실)
+4장 입니다
+홍사민 (매니저/기기운영팀)
+35분정도 예상됩니다
+걸린지폐 제거후 재적재
+모듈정상화
+고객님 사용 이상없음 확인</t>
+  </si>
+  <si>
+    <t>황진훈 (리더/상황실)
+TMS OFF
+확인해보겠습니다
+배너 화면에서 멈춤 증상 &gt; 터치 시 통신 장애 화면
+TMS 복구 확인 일시적 인터넷 문제 였던거 같습니다.
+쁨글로벌의원 강남점
+- D_ID:KD241008000365
+- USBCamera (USB카메라)
+- ERR_NOT_OPEN 응용 프로그램에 오류가 있습니다.
+- 2026-01-02 17:31:09
+장치 관리자 인식 실패
+익일 방문 시 조치 하도록 하겠습니다
+주요지역 보충/수거에 더 신경써주시기 바랍니다.
+cc. @홍사민 (매니저/기기운영팀) @조영남 (매니저/기기운영팀) 님
+전성규 
+USB카메라 포트변경 
+캡쳐정상/모듈정상화</t>
+  </si>
+  <si>
+    <t>황진훈 (리더/상황실)
+JPY 4장 미방출 입니다
+@심부경 (영어권상담/CX팀)님
+@성치훈 (부산지사/기기운영팀)님ㅠ
+심부경 (영어권상담/CX팀)
+통화중입니다
+주장일치합니다
+황진훈 (리더/상황실)
+시간 확인해보겠습니다
+시간은 좀 걸리듯합니다
+투숙객이 신가요?
+금액을 프론트에 전달 드려도 되고 계좌 환불도 가능하니 원하시는 걸로
+심부경 (영어권상담/CX팀)
+네 확인후 바로 공유하도록 하겠습니다
+전화번호: 01091008598
+계좌주 김현성
+계좌번호:110-349-987404
+황진훈 (리더/상황실)
+371,000원 환불 완료 입니다
+4008A 3번 카세트 매체 없음 또는 픽업 실패
+@성치훈 (부산지사/기기운영팀)님 계수 중이라 완료 후 처리 예정입니다
+출발 할 때 시간 공유 부탁드립니다
+성치훈 (부산지사/기기운영팀)
+40분후 도착예정입니다
+1.10장씩 다수 테스트시 1~2장 회수함 인입발생
+2.기기 정상화 완료
+3.카세트 사진첨부함
+황진훈 (리더/상황실)
+마지막 1~2장이 리젝트함에 빠짐
+엔화 추가 보충 후 금일은 복귀하겠습니다
+천원권, 달러 정상 방출 됨
+예전 엔화 카세트 이슈와 동일하여 공유 드립니다
+cc. @양진원 (부그룹리더/기술지원팀)님
+양진원 (부그룹리더/기술지원팀)
+&lt;HCDM_241125_000047&gt;
+- 동절기 온도 이슈 encoder motor issue 대응 저온 F/W 적용 했습니다.
+- 조치 이후 reject 발생에 의한 JPY 카세트 매체 없음 또는 픽업 실패 발생시 멘션 바랍니다. 해결 되지 못할 경우 후속 조치 하도록 하겠습니다. CC: @상황실</t>
+  </si>
+  <si>
+    <t>황진훈 (리더/상황실)
+103장 입니다
+홍사민 (매니저/기기운영팀)
+1시간여 예상됩니다
+황진훈 (리더/상황실)
+혹시 계수 중이시면 놓고 가세요
+익일 처리하겠습니다
+조영남 (매니저/기기운영팀)
+오후계수는 모두 완료됐습니다. (편집됨) 
+홍사민 (매니저/기기운영팀)
+걸림지폐제거 재적재
+모듈정상화
+테스트 이상없음</t>
+  </si>
+  <si>
     <t>황진훈 (리더/상황실)
 NMS 정상
 출근길 처리 가능하실까요?? @team_kiosk (편집됨) 
 양진원 (부그룹리더/기술지원팀)
 조치 하겠습니다.(35분)
-부트 옵션 이전 이력 동일건 UEFI 설정 및 Boot Manager 설정 정상 부팅 정상 전환</t>
-  </si>
-  <si>
-    <t>지폐방출기 오류</t>
-  </si>
-  <si>
-    <t>- 방출기 멈춤(계좌)
-- EJECT_FINISH 0/0, 0/0, 0/0, 0/0, 0/0, 0/4 
-- WOWCARDB 
-- KO</t>
-  </si>
-  <si>
-    <t>황진훈 (리더/상황실) 
-JPY 4장 
-배윤경 (영어권상담/CX팀) 
-만엔 미방출 고객님 인입주셨는데 나머지 돈 방출되어 4만엔 모두 가져가셨습니다. 
-황진훈 (리더/상황실) 
-만엔이 한참 있다가 나왔네요 
-어드민 차감 및 모듈 정상화 완료 입니다 
-양진원 (부그룹리더/기술지원팀) 
-모듈 에러 상태 인가요? 
+부트 옵션 이전 이력 동일건 UEFI 설정 및 Boot Manager 설정 정상 부팅 정상 전환
+@유준수 (매니저/기술지원팀) CMOS battery 교체 or PC 교체 처리 예정
+유준수
+1세대 pc교체
+이지카드 재설치 기기정상화
+모듈업데이트</t>
+  </si>
+  <si>
+    <t>2026. 1. 5</t>
+  </si>
+  <si>
+    <t>유준수</t>
+  </si>
+  <si>
+    <t>황진훈 (리더/상황실)
+JPY 4장
+배윤경 (영어권상담/CX팀)
+만엔 미방출 고객님 인입주셨는데 나머지 돈 방출되어 4만엔 모두 가져가셨습니다.
+황진훈 (리더/상황실)
+만엔이 한참 있다가 나왔네요
+어드민 차감 및 모듈 정상화 완료 입니다
+양진원 (부그룹리더/기술지원팀)
+모듈 에러 상태 인가요?
 정상화 처리 확인 (편집됨) 
-jPY 출금시 reject 관련 현장 테스트 필요(F/W 변경 및 현장 테스트) 
-오늘 보충 방문시 연락 바랍니다. CC: @부산지사 
-성치훈 (부산지사/기기운영팀) 
-네 그렇게 하겠습니다 
-양진원 (부그룹리더/기술지원팀) 
-1. 원화, 엔화 호환되는 카세트(신규LOT 7월) 교체 상태 확인 &lt; 신형 카세트 대응 조건 확인 
-2. HCDM_250102_000056 F/W 재적용 &lt; 전일 마지막장 Reject 발생 공유로 저온 대응 F/W 적용건 
-- JPY 마지막장 리젝트 다발 대응 F/W 
-- 호환 관련 필드 운영 안정성을 위하여 2025년 납품분에 대해서만 V56 적용 제조사 권장 
-- 2023년 납품 이후 V56 펌웨어 업데이트, 신형카세트 사용시 엔화 방출 문제 없음 
-- 2021년 메인보드 리비젼 관련 2021년 및 이전 장비는 V56으로 업데이트하지 않는 것을 권고 
-위 적용 처리 완료 방문시 JPY 1매, 5매, 10매, 20매 eject 테스트 가이드 해주세요. 문제 있을 경우 연락 주세요. CC: @황진훈 (리더/상황실) (편집</t>
-  </si>
-  <si>
-    <t>- NONE 40064 0/1, 0/3, 0/9 
-- WOWCARDS 
-- JP</t>
-  </si>
-  <si>
-    <t>황진훈 (리더/상황실) 
-89000원 미방출 
-정은호 (일본어상담/CX팀) 
-89000원 일치 
-카드 미소지 고객이십니다. 
-해당 호텔 예치금 있을까요? 
-황진훈 (리더/상황실) 
-예치금 없습니다 투숙객이신가요? 
-정은호 (일본어상담/CX팀) 
-투숙객이신데 오늘 체크아웃 예정이십니다. 호텔에는 오후 2시에 마지막으로 들르신다고 합니다. 
-황진훈 (리더/상황실) 
-그 전에 가능 합니다 
-프론트에 맡겨 드려도 될지 
-시간은 확인되는데로 공유 드리겠습니다 
-정은호 (일본어상담/CX팀) 
-MORII HIRONA 
-TS2514625 
-프론트에 맡겨주시면 오후 2시에 맡겨둔 짐과 함께 수령하겠다고 하십니다. 
+jPY 출금시 reject 관련 현장 테스트 필요(F/W 변경 및 현장 테스트)
+오늘 보충 방문시 연락 바랍니다. CC: @부산지사
+성치훈 (부산지사/기기운영팀)
+네 그렇게 하겠습니다
+양진원 (부그룹리더/기술지원팀)
+1. 원화, 엔화 호환되는 카세트(신규LOT 7월) 교체 상태 확인 &lt; 신형 카세트 대응 조건 확인
+2. HCDM_250102_000056 F/W 재적용 &lt; 전일 마지막장 Reject 발생 공유로 저온 대응 F/W 적용건
+- JPY 마지막장 리젝트 다발 대응 F/W
+- 호환 관련 필드 운영 안정성을 위하여 2025년 납품분에 대해서만 V56 적용 제조사 권장
+- 2023년 납품 이후 V56 펌웨어 업데이트, 신형카세트 사용시 엔화 방출 문제 없음
+- 2021년 메인보드 리비젼 관련 2021년 및 이전 장비는 V56으로 업데이트하지 않는 것을 권고
+위 적용 처리 완료 방문시 JPY 1매, 5매, 10매, 20매 eject 테스트 가이드 해주세요. 문제 있을 경우 연락 주세요. CC: @황진훈 (리더/상황실) (편집
+성치훈 
+1.테스트 완료및 정상 동작 확인</t>
+  </si>
+  <si>
+    <t>황진훈 (리더/상황실)
+89000원 미방출
+정은호 (일본어상담/CX팀)
+89000원 일치
+카드 미소지 고객이십니다.
+해당 호텔 예치금 있을까요?
+황진훈 (리더/상황실)
+예치금 없습니다 투숙객이신가요?
+정은호 (일본어상담/CX팀)
+투숙객이신데 오늘 체크아웃 예정이십니다. 호텔에는 오후 2시에 마지막으로 들르신다고 합니다.
+황진훈 (리더/상황실)
+그 전에 가능 합니다
+프론트에 맡겨 드려도 될지
+시간은 확인되는데로 공유 드리겠습니다
+정은호 (일본어상담/CX팀)
+MORII HIRONA
+TS2514625
+프론트에 맡겨주시면 오후 2시에 맡겨둔 짐과 함께 수령하겠다고 하십니다.
 응대 종료하였습니다. (편집됨) 
-양진원 (부그룹리더/기술지원팀) 
-"40064" 초기화 후 또는 방출 전 REJECT_IN 센서에 매체 잔류 이전 이력 공유 
-reject in 센서부 정비 정상화 
-테스트시 40064" 초기화 후 또는 방출 전 REJECT_IN센서에 매체 잔류 중복 코드 발생건 
-조치사항 
-황진훈 (리더/상황실) 
-위 금액 만큼 어드민 차감 후 프론트에 전달 해주시면 됩니다 
-@박재홍 (매니저/기기운영팀)님 
-출발 시 도착 예정 시간 공유 해주세요 
-박재홍 (매니저/기기운영팀) 
-10시30분 도착예정입니다 
-걸린지폐없음 
-지폐재적재,모듈업데이트 
-방출테스트 정상확인 
+양진원 (부그룹리더/기술지원팀)
+"40064" 초기화 후 또는 방출 전 REJECT_IN 센서에 매체 잔류 이전 이력 공유
+reject in 센서부 정비 정상화
+테스트시 40064" 초기화 후 또는 방출 전 REJECT_IN센서에 매체 잔류 중복 코드 발생건
+조치사항
+황진훈 (리더/상황실)
+위 금액 만큼 어드민 차감 후 프론트에 전달 해주시면 됩니다
+@박재홍 (매니저/기기운영팀)님
+출발 시 도착 예정 시간 공유 해주세요
+박재홍 (매니저/기기운영팀)
+10시30분 도착예정입니다
+걸린지폐없음
+지폐재적재,모듈업데이트
+방출테스트 정상확인
 어드민 조정(-1/-3/-9) 후 89,000원 프런트 전달</t>
-  </si>
-  <si>
-    <t>박재홍</t>
-  </si>
-  <si>
-    <t>쁨글로벌의원 명동점(우측)</t>
-  </si>
-  <si>
-    <t>- WOWCARD2 (카드방출기2) 
-- 88330203263245100120 
-- CARD_EJECT_ERR 0 [0장 배출후 비정상종료 상태]</t>
   </si>
   <si>
     <t>황진훈 (리더/상황실)
 잔고 34 장
 @조광수 (매니저/기기운영팀) 님 인근 보충 시 처리 부탁드립니다
-조광수 (매니저/기기운영팀) 
+조광수 (매니저/기기운영팀)
 찍힘 카드 반대로 재적재 후 테스트 완료&gt;모듈정상업데이트</t>
   </si>
   <si>
-    <t>조광수</t>
-  </si>
-  <si>
-    <t>황진훈 (리더/상황실) 
-323장 입니다 
+    <t>황진훈 (리더/상황실)
+323장 입니다
 @조광수 (매니저/기기운영팀)님 (편집됨) 
-조광수 (매니저/기기운영팀) 
-5분뒤도착입니다. 
+조광수 (매니저/기기운영팀)
+5분뒤도착입니다.
 지폐인식기 적색등&gt;걸린지폐 없음&gt;수거후 테스트 완료&gt;모듈정상업데이트</t>
   </si>
   <si>
-    <t>- ERR_HEAD_UP_SENSOR</t>
+    <t>Acceptor 및 Cash-box</t>
+  </si>
+  <si>
+    <t>오병창</t>
+  </si>
+  <si>
+    <t>(옥외형)이마트24성동연무장점</t>
   </si>
   <si>
     <t>황진훈 (리더/상황실)
-@배현석 (매니저/기기운영팀) 님
-배현석 (매니저/기기운영팀) 
-종이가 뒤쪽에서 절단되어 나오지 않았음. 
-정상위치 영수증 위치 후 정상작동 확인완료.</t>
-  </si>
-  <si>
-    <t>배현석</t>
+56장입니다
+@김신후 (매니저/기기운영팀)님
+김신후 (매니저/기기운영팀)
+50분 정도 소요 예정입니다.
+걸린지폐 제거, 전체수거, 정상화</t>
+  </si>
+  <si>
+    <t>솔라리아 니시테츠 명동</t>
+  </si>
+  <si>
+    <t>황진훈 (리더/상황실)
+42장 입니다
+김신후 (매니저/기기운영팀)
+30분 내 도착 예정입니다.
+걸린지폐 제거, 정상화</t>
+  </si>
+  <si>
+    <t>2026. 1. 4</t>
+  </si>
+  <si>
+    <t>강남역(통합)</t>
+  </si>
+  <si>
+    <t>김승찬
+05:50 리부팅 지연 예상
+06:50 재확인 예정 (편집됨) 
+전원 ON 확인 정상화 완료</t>
+  </si>
+  <si>
+    <t>소테츠 스프라지르 명동</t>
+  </si>
+  <si>
+    <t>김승찬
+168장입니다
+출근길 처리 가능 하신분 계실까요? @team_kiosk
+윤지홍
+50분후 도착입니다
+걸린지폐 제거 , 테스트 이상 없음 , 모듈 정상 업데이트
+정상작동 확인
+양진원 
+@오병창(매니저/기술지원팀) 후속 조치 예정
+오병창 
+소테츠 스프라지르 명동 
+지폐인식기 및 캐시박스 점검 
+지폐인식기 센서부 및 기어 세척 건조 
+캐시박스 청소 마찰부 별도 청소 
+재장착후 30매 이상 테스트</t>
+  </si>
+  <si>
+    <t>윤지홍</t>
+  </si>
+  <si>
+    <t>(S)명동레디영약국</t>
+  </si>
+  <si>
+    <t>정은호
+명동레디영약국
+신규발급하셨으나 카드가 나오지 않았다고 하십니다
+TT4325380
+김승찬
+방출구 위쪽에 카드 걸려 있는 거 보이실까요?
+정은호
+확인 부탁드렸는데 안 보이신다고 하십니다
+김승찬
+@박재홍 (매니저/기기운영팀) 님 방문 가능하실까요?
+박재홍
+1분내 방문
+김승찬
+어디에 걸려 있는지 공유 해주시고 고객에게 카드 1장 전달 부탁드립니다
+정은호
+1분내 방문 및 카드 앱 등록하여 직접 활성화 안내 드리고 응대 종료하였습니다
+박재홍
+카드 고객 전달 완료
+양진원 
+@유준수 (매니저/기술지원팀) 후속 조치 예정
+유준수 
+정전기 방지 테이프 부착 
+방출테스트 정상 추후 재발되는지 확인필요</t>
+  </si>
+  <si>
+    <t>(옥외형)GS25화양세종점</t>
+  </si>
+  <si>
+    <t>김승찬
+LTE ON / 현재 PC가 꺼져있는 상태로 보여짐
+@김신후 (매니저/기기운영팀) 님 방문 가능하실까요?
+김신후
+30분정도 소요 예정입니다.
+김승찬
+https://wowpass.slack.com/archives/C056QA7UXDJ/p1766552393502239?thread_ts=1766549562.082609&amp;cid=C056QA7UXDJ
+넵. 도착 하시면 PC 전원 켜져 있는지 먼저 확인 부탁드립니다
+김신후
+도착시 Pc전원 꺼진 상태, 전원 아답터 재연결, 정상화
+김승찬
+12월 발생 건과 비슷한 PC 이슈 건이라 멘션 드립니다.
+CC: @양진원 (부그룹리더/기술지원팀) 님
+양진원 
+@김선경 (매니저/기술지원팀) 12/24 예방 정비 후 PC Freezing 추가 방문 조치 후 추가 발생 PC &amp; Adaptor 교체 처리 예정
+김선경 
+Pc 교체 컴포트 커넥트 체크 이상없음 
+로그 백업 복구 및 시트롤 복구 
+라이센스 키 인증 
+정상 서비스 이상없었습니다</t>
+  </si>
+  <si>
+    <t>(S)올리브영 합정메세나폴리스점</t>
+  </si>
+  <si>
+    <t>김승찬 
+LTE ON / 화면 꺼진 상태로 확인됨 
+@박기성 (매니저/기기운영팀) 님 방문 가능하실까요?
+박기성 
+40분내 예상
+김승찬 
+PC 전원 켜져 있는지 확인 부탁드립니다. (CCTV 확인 시 꺼져있는걸로 확인됨)
+박기성 
+처리 완료. 
+PC 켜져 있으나 모니터 출력불. 
+HDMI 케이블 재체결후 정상 출력. 
+PC 재부팅 테스트 이상무.</t>
+  </si>
+  <si>
+    <t>김승찬
+4장입니다
+@박재홍 (매니저/기기운영팀) 님 출동 부탁드립니다
+박재홍
+10분내 도착예정
+걸린지폐제거,지폐수거
+모듈업데이트
+테스트 정상확인
+양진원 
+@오병창(매니저/기술지원팀) 후속 조치 예정
+오병창 
+회현역 점검 
+지폐인식기 내부 센서 롤러 기어부 청소 
+캐쉬박스 내부 청소 
+알콜 청소 후 건조 및 테스트 약 30매 진행</t>
+  </si>
+  <si>
+    <t>류진영
+올리브영 합정 메세나 폴리스점 - 기기 화면이 들어오지 않음
+기기 화면이 아예 안켜짐
+매장에서 기기를 키는 방법 또는 원격으로 켜주실 수 있는지 문의
+확인 부탁 드립니다. (편집됨) 
+김승찬
+확인해보니 원격 접속도 불가한 상태입니다
+고객 문의면 근처 기기로 안내 부탁드립니다.
+류진영
+통화 종료한 상황이라 잠시만 기다려주세요.
+통화 연결되었습니다
+김승찬
+@이상웅 (매니저/기기운영팀) 님 출동 부탁드립니다
+이상웅
+네 30분 예상됩니다
+류진영
+네 그럼 출동 약 30분 소요 안내드릴게요 (편집됨) 
+고객 문의는 아니라고 합니다.
+이상웅
+PC 강제 종료해도 재부팅이 안돼
+메인 전원을 내리고 PC 재부팅 완료
+어드민 모듈화 및 기기 정상화 완료</t>
+  </si>
+  <si>
+    <t>이상웅</t>
+  </si>
+  <si>
+    <t>- ERR_JAM 40081 0/0, 0/0, 0/0, 0/0, 22/30, 0/0 
+- WOWCARDB 
+- KO</t>
+  </si>
+  <si>
+    <t>김승찬
+CNY 8장 미방출입니다
+@류진영(영어권상담/CX팀) 님
+40081 : 2번 카세트 픽업 실패 (카세트에 매체는 존재하는 상태)
+@이상웅 (매니저/기기운영팀) 님 합정 처리 후 이동 부탁드립니다 (편집됨) 
+이상웅
+네
+류진영
+주차를 하고 오신 상황이라 주차비가 더 나올 것 같다고 하심
+계좌이체 요청하셨는데 혹시 가능할까요?
+신한은행 110-049-706025 장지인
+김승찬
+네 계좌이체 10분내로 해드리겠습니다
+이상웅
+30분 예상됩니다
+김승찬
+거래 환율 : 206.18
+619,000 - 453,596 = 165,404원 이체 완료
+류진영
+상기내용 고객측에 유선 안내 완료했습니다.
+이상웅
+지폐 방출기2 2번 카세트 재장착
+방출 테스트 이상없이 정상방출
+어드민 모듈화 및 기기 정상화 완료</t>
+  </si>
+  <si>
+    <t>김승찬
+LTE ON / 원격 접속 불가
+화면 OFF 상태 확인됨
+@이상웅 (매니저/기기운영팀) 님 다시 방문 부탁드립니다.
+이상웅
+도미인 인사동 처리 하고 이동하겠습니다
+50분 예상됩니다
+김승찬
+점검 필요해 보입니다. @양진원 (부그룹리더/기술지원팀) 님
+양진원
+@이상웅 (매니저/기기운영팀) 스킵 일정 진행 하세요. 조치 하겠습니다.
+이상웅
+네, 알겠습니다
+김승찬
+방금 매장으로부터 연락 와서 확인해보니 원격 접속이 가능한 상태입니다
+전기 OFF -&gt; ON 되서 PC가 켜진 건 아닌 것 같습니다 (비정상 부팅 로그 확인 안됨)
+일단 기기는 점검 상태 유지하겠습니다.
+김승찬
+확인해보니 직원이 전원 재연결을 해서 전원이 켜진 걸로 확인됩니다
+cs쪽에선 전원 재연결 요청은 하지 않았고 화면이 안나오는 상태라 임의로 전원 재연결을 매장에서 진행한 걸로 확인됩니다
+양진원
+매장 연락 주었던 담당 직원은 콘센트 전원 분리 연결은 하지 않았다고 함
+기성님 1차 현장 조치시 PC HDMI Port 재연결시 화면 출력 이력 확인
+상웅님 2차 현장 조치시 전원 강제 차단 조치 후 화면 출력 이력 확인
+3세대 PC 최근 교체 이력 확인
+현 출고시 HDMI to DVI Cable nexi 제품으로 케이블 보강된 케이블메이트 대체 교체 매장 직원 관련 사항 및 기 PC 교체 후 오늘 케이블 교체 처리로 모니터링 필요한 부분 설명 추가 증상 발생시 익일 추가 조치 안내
+전원 콘센트 분리 연결은 상시 가동으로 우리측 별도 요청이 있지 않을 경우 분리 연결 하지 않는 부분 설명
+(S)올리브영 합정메세나폴리스점 동일 증상건은 멘션 바랍니다. 개별 처리 예정 CC: @김승찬 (매니저/상황실)
+김승찬
+네 알겠습니다.
+수고하셨습니다!</t>
+  </si>
+  <si>
+    <t>미미라인 동대문</t>
+  </si>
+  <si>
+    <t>장애문
+미미라인 동대문
+여권스캔 불가입니다. 재실행 부탁 드립니다.
+김승찬
+근처 기기로 안내 부탁드립니다
+장치 관리자 인식 불가
+@이상웅 (매니저/기기운영팀) 님 출동 필요합니다
+이상웅
+네 20분 예상됩니다
+장애문
+넵 안내 드렸습니다. 감사합니다!
+이상웅
+여권인식기 전원및 케이블 재장착
+인식테스트 이상없이 정상인식 완료
+(USB카메라도 이상없이 작동)
+기기 정상화 완료</t>
+  </si>
+  <si>
+    <t>CU 종로제일점</t>
+  </si>
+  <si>
+    <t>USB 카메라 오류</t>
+  </si>
+  <si>
+    <t>- ERR_NOT_OPEN 응용 프로그램에 오류가 있습니다.</t>
+  </si>
+  <si>
+    <t>김승찬 
+원격 정상화 불가 
+보충/수거 시 처리 예정
+양진원 
+@김선경 (매니저/기술지원팀) 리부팅시 에러 발생건 Cable 점검 및 처리 예정
+김선경 
+모듈 커넥터 및 USB커넥터 재연결 
+배선 문닫힘 체크 
+PC리부팅 3회시 연결 이상없었습니다</t>
+  </si>
+  <si>
+    <t>김승찬 
+05:50 리부팅 지연 
+기기 점검 전환 모니터링 예정 
+06:17 os 부팅 완료 
+기기 정상 전환</t>
+  </si>
+  <si>
+    <t>(옥외형)노보텔 앰배서더 서울 동대문</t>
+  </si>
+  <si>
+    <t>김승찬
+전원이 차단된 듯 합니다
+확인 중
+시설팀 확인 요청 중
+원요한
+KT텔레캅에서도 전원이 나갔다고 연락이 왔는데, 앞에 사다리 펴고 전기작업 진행중이라고 합니다.
+소요시간: 약 30분 예정
+원요한
+전기 다시 들어왔다고 합니다.
+김승찬
+정상화 완료 했습니다.</t>
+  </si>
+  <si>
+    <t>- 지폐방출기 응답 없음
+- EJECT_FINISH 0/0, 0/4, 0/0
+- WOWCARDS
+- JP(Withdraw)</t>
+  </si>
+  <si>
+    <t>김승찬
+@정은호 (일본어상담/CX팀) 님 고객 연락 있을까요?
+정은호
+4만원 정상 방출되었습니다. 잔액도 변동 없으신 상황입니다.
+동의 구하고 잔액 조정 안내 드려도 될까요?
+김승찬
+네 안내 부탁드립니다
+41000원 차감 예정입니다
+정은호
+잔액 차감 안내 후 응대 종료하였습니다
+김승찬
+어드민 차감 (0/-4/0) 후 모듈 정상화
+카드번호 : 9710029917219769
+잔액 차감 완료</t>
+  </si>
+  <si>
+    <t>김승찬
+@이상웅 (매니저/기기운영팀) 님 출동 부탁드립니다 (편집됨) 
+@권용현 (매니저/기기운영팀) 님 처리 예정입니다.
+권용현
+11시 도착 예정입니다
+카드리더기 커넥터 분리 후 재 결합
+테스트 모드 정상
+모듈정상화
+양진원
+옥외형 카드리더기 장애건 별도 모니터링 공유 바랍니다. 전체 장애건 포함 CC: @상황실
+김승찬
+해당 건 포함 총 3건 발생입니다
+11/12 : (옥외형)CU홍대놀이터점
+12/31 : (옥외형)GS25 홍대아트점</t>
+  </si>
+  <si>
+    <t>김승찬
+LTE ON / 원격 접속 불가
+화면 OFF 상태 확인
+기기 점검 전환 (기술지원팀 조치 예정) (편집됨) 
+양진원
+@유준수 (매니저/기술지원팀) 사무실 복귀 후 PC 준비 교체 처리 예정
+유준수
+3세대pc교체
+BellExchange 폴더 전체백업복사
+기기정상화 완료</t>
+  </si>
+  <si>
+    <t>안국역</t>
+  </si>
+  <si>
+    <t>김승찬 
+@유남근 (파트리더/기기운영팀) 님 처리 예정입니다
+유남근 
+영수증 헤드 살짝 들린 상태 
+헤드 재장착 후 테스트 시 정상 출력 확인 
+모듈정상화 했습니다</t>
+  </si>
+  <si>
+    <t>현대아울렛 동대문점</t>
+  </si>
+  <si>
+    <t>김승찬 
+2장입니다 
+@이상웅 (매니저/기기운영팀) 님 출동 가능하실까요
+이상웅 
+입수함에 걸린 지폐 제거 
+입수 테스트 이상없이 정상입수 
+어드민 모듈화 및 기기 정상화 완료</t>
+  </si>
+  <si>
+    <t>롯데프리미엄아울렛 동부산점</t>
+  </si>
+  <si>
+    <t>- WOWCARD2 (카드방출기2) 
+- 15354905265230140120 
+- CARD_EJECT_ERR 0 [0장 배출후 비정상종료 상태]</t>
+  </si>
+  <si>
+    <t>김승찬
+1번 방출기 : 35장
+다음 방문 시 처리 부탁드립니다. (잔고 부족 전)
+@부산지사
+최재현
+금일 1월5일 본사시재금 정리포장
+1월6일 1인근무(1인 본사방문)
+1월7일 카드 잔고부족 전 방문가능합니다.</t>
+  </si>
+  <si>
+    <t>김승찬
+@전성규 (매니저/기기운영팀) @배현석 (매니저/기기운영팀) 님 출동 부탁드립니다
+전성규
+25분내 도착예정입니다
+김승찬
+@전성규 (매니저/기기운영팀) 님이 출동 부탁드립니다.
+해당 기기는 카드리더기 가이드가 일반 매입기랑 다릅니다.
+교체 시도해 보시고 불가 판단 시 전원 커넥터 재연결 조치 부탁드립니다.
+양진원
+@전성규 (매니저/기기운영팀) 1차 시도 해보시고 잘 안될 경우 바로 전원 리셋 하시면 됩니다. 교체 필요시 별도 처리 하도록 하겠습니다. (편집됨) 
+전성규
+도착시 카드리더가 깜박이며 점등
+1차 교체시도&gt;교체불가&gt;전원,데이터케이블 재연결
+@양진원 (부그룹리더/기술지원팀)
+테스트/모듈정상화</t>
+  </si>
+  <si>
+    <t>김승찬
+18장입니다
+@배현석 (매니저/기기운영팀) 님 출동 부탁드립니다
+배현석
+7분 예상됩니다.
+걸림 제거 후 정상작동 확인완료
+(개수 확인완료)</t>
+  </si>
+  <si>
+    <t>- ERR_JAM 40052 0/0, 0/0, 0/0, 0/0, 15/29, 0/0 
+- WOWCARDB 
+- KO</t>
+  </si>
+  <si>
+    <t>김승찬 
+CNY 14장 미방출입니다 
+@류진영(영어권상담/CX팀) 님 
+@배현석 (매니저/기기운영팀) 님 출동 부탁드립니다
+류진영 
+네, 유선으로 고객 인입되었습니다.
+김승찬 
+계좌 받아 주시면 이체 하겠습니다
+배현석 
+10분 예상됩니다
+류진영 
+계좌이체 부탁드립니다. 감사합니다. 
+은행: 하나 
+계좌번호 : 071-18-36886-4 
+성함: 장우석
+김승찬 
+거래 환율 : 206.87 
+600,000 - 310,305 = 289,695원 환불 완료 
+40052 : 방출 중 EXIT1 센서에 잘못된 매체 진입 
+정상화 / 방출 테스트만 해주시면 됩니다~
+배현석 
+방출테스트 및 정상화 완료</t>
+  </si>
+  <si>
+    <t>김승찬 
+@전성규 (매니저/기기운영팀) 님 다시 방문좀 부탁드립니다 ㅠ 
+중복 발생 입니다. cc: @양진원 (부그룹리더/기술지원팀) 님
+전성규 
+20분내 도착예정입니다. 
+도착시 카드리더기 미점등 
+카드리더기 교체 
+테스트/모듈정상화/실사용 카드인식 테스트 10회 이상없음</t>
+  </si>
+  <si>
+    <t>김승찬 
+@배현석 (매니저/기기운영팀) 님 출동 가능하실까요? 
+18장입니다.
+배현석 
+25분 예정 예정입니다. 
+걸림 제거 후 정상작동 확인완료 
+(개수 확인완료)</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1618,10 +2099,22 @@
     <xf numFmtId="0" fontId="23" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1960,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E535798-B9AB-41CB-BB7E-43663FB98045}">
   <dimension ref="A1:P630"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection sqref="A1:P65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2059,13 +2552,13 @@
         <v>20</v>
       </c>
       <c r="I2" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="K2" s="75" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" s="75" t="s">
-        <v>23</v>
       </c>
       <c r="L2" s="78"/>
       <c r="M2" s="80"/>
@@ -2087,25 +2580,25 @@
         <v>1.1805555555555555E-2</v>
       </c>
       <c r="E3" s="75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="76" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="78" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="75" t="s">
         <v>22</v>
-      </c>
-      <c r="K3" s="75" t="s">
-        <v>23</v>
       </c>
       <c r="L3" s="78"/>
       <c r="M3" s="80"/>
@@ -2127,25 +2620,25 @@
         <v>0.47222222222222221</v>
       </c>
       <c r="E4" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="G4" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="H4" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="I4" s="78" t="s">
         <v>30</v>
-      </c>
-      <c r="I4" s="78" t="s">
-        <v>31</v>
       </c>
       <c r="J4" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="78"/>
       <c r="M4" s="80"/>
@@ -2167,25 +2660,25 @@
         <v>0.39444444444444443</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="76" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="78" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="78" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="J5" s="79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L5" s="78"/>
       <c r="M5" s="80"/>
@@ -2207,38 +2700,38 @@
         <v>0.44374999999999998</v>
       </c>
       <c r="E6" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="H6" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="I6" s="78" t="s">
         <v>39</v>
-      </c>
-      <c r="H6" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="78" t="s">
-        <v>41</v>
       </c>
       <c r="J6" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="84" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L6" s="87"/>
       <c r="M6" s="79" t="s">
         <v>16</v>
       </c>
       <c r="N6" s="79" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O6" s="79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P6" s="79" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2255,25 +2748,25 @@
         <v>0.40486111111111112</v>
       </c>
       <c r="E7" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="H7" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="I7" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="78" t="s">
-        <v>49</v>
-      </c>
       <c r="J7" s="79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="78"/>
       <c r="M7" s="80"/>
@@ -2295,25 +2788,25 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="E8" s="75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="76" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="78" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="78" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J8" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K8" s="84" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L8" s="78"/>
       <c r="M8" s="80"/>
@@ -2335,25 +2828,25 @@
         <v>0.7055555555555556</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9" s="76" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="78" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="78" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J9" s="79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" s="75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L9" s="78"/>
       <c r="M9" s="80"/>
@@ -2375,25 +2868,25 @@
         <v>0.76527777777777772</v>
       </c>
       <c r="E10" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="H10" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="89" t="s">
+      <c r="I10" s="78" t="s">
         <v>56</v>
-      </c>
-      <c r="H10" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="78" t="s">
-        <v>58</v>
       </c>
       <c r="J10" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="84" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L10" s="78"/>
       <c r="M10" s="80"/>
@@ -2415,25 +2908,25 @@
         <v>0.61805555555555558</v>
       </c>
       <c r="E11" s="75" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="78" t="s">
-        <v>40</v>
-      </c>
       <c r="I11" s="78" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="J11" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K11" s="84" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L11" s="78"/>
       <c r="M11" s="80"/>
@@ -2455,38 +2948,38 @@
         <v>0.65555555555555556</v>
       </c>
       <c r="E12" s="75" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F12" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="78" t="s">
-        <v>40</v>
-      </c>
       <c r="I12" s="78" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J12" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="84" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L12" s="78"/>
       <c r="M12" s="79" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N12" s="79" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O12" s="79" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P12" s="79" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2503,25 +2996,25 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="E13" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="78" t="s">
-        <v>71</v>
-      </c>
       <c r="I13" s="78" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="J13" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K13" s="84" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L13" s="78"/>
       <c r="M13" s="80"/>
@@ -2543,23 +3036,23 @@
         <v>0.68819444444444444</v>
       </c>
       <c r="E14" s="75" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="78"/>
       <c r="I14" s="78" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J14" s="79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K14" s="93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L14" s="78"/>
       <c r="M14" s="80"/>
@@ -2581,25 +3074,25 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E15" s="75" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="77" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H15" s="78" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="78" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="J15" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="84" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L15" s="78"/>
       <c r="M15" s="80"/>
@@ -2621,25 +3114,25 @@
         <v>0.84652777777777777</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F16" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="101" t="s">
-        <v>57</v>
-      </c>
       <c r="I16" s="102" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J16" s="103" t="s">
         <v>9</v>
       </c>
       <c r="K16" s="104" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L16" s="102"/>
       <c r="M16" s="105"/>
@@ -2649,37 +3142,37 @@
     </row>
     <row r="17" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B17" s="72">
         <v>0.32361111111111113</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" s="74">
         <v>0.44097222222222221</v>
       </c>
       <c r="E17" s="75" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F17" s="91" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G17" s="92" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H17" s="78" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I17" s="78" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J17" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K17" s="84" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L17" s="78"/>
       <c r="M17" s="80"/>
@@ -2689,37 +3182,37 @@
     </row>
     <row r="18" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B18" s="72">
         <v>0.40555555555555556</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" s="74">
         <v>0.47361111111111109</v>
       </c>
       <c r="E18" s="75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="78" t="s">
-        <v>40</v>
-      </c>
       <c r="I18" s="78" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J18" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="84" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L18" s="78"/>
       <c r="M18" s="80"/>
@@ -2729,37 +3222,37 @@
     </row>
     <row r="19" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B19" s="72">
         <v>0.41111111111111109</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" s="74">
         <v>0.42222222222222222</v>
       </c>
       <c r="E19" s="75" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F19" s="76" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19" s="78" t="s">
         <v>20</v>
       </c>
       <c r="I19" s="78" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J19" s="79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="78"/>
       <c r="M19" s="80"/>
@@ -2769,31 +3262,31 @@
     </row>
     <row r="20" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B20" s="72">
         <v>0.45208333333333334</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" s="74">
         <v>0.47708333333333336</v>
       </c>
       <c r="E20" s="75" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F20" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="78" t="s">
-        <v>40</v>
-      </c>
       <c r="I20" s="78" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J20" s="83" t="s">
         <v>9</v>
@@ -2809,37 +3302,37 @@
     </row>
     <row r="21" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B21" s="72">
         <v>0.45624999999999999</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D21" s="74">
         <v>0.49861111111111112</v>
       </c>
       <c r="E21" s="75" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F21" s="106" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G21" s="107" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H21" s="78" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I21" s="78" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J21" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K21" s="84" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L21" s="78"/>
       <c r="M21" s="80"/>
@@ -2849,85 +3342,85 @@
     </row>
     <row r="22" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B22" s="72">
         <v>0.47291666666666665</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="74">
         <v>0.48680555555555555</v>
       </c>
       <c r="E22" s="75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F22" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="78" t="s">
-        <v>40</v>
-      </c>
       <c r="I22" s="78" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="J22" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K22" s="84" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L22" s="78"/>
       <c r="M22" s="79" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N22" s="79" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="O22" s="79" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P22" s="79" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B23" s="72">
         <v>0.52152777777777781</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D23" s="74">
         <v>0.54236111111111107</v>
       </c>
       <c r="E23" s="75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F23" s="91" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G23" s="92" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H23" s="78" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I23" s="78" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J23" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K23" s="84" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L23" s="78"/>
       <c r="M23" s="80"/>
@@ -2937,37 +3430,37 @@
     </row>
     <row r="24" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B24" s="72">
         <v>0.53333333333333333</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D24" s="74">
         <v>0.55277777777777781</v>
       </c>
       <c r="E24" s="75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="78" t="s">
-        <v>40</v>
-      </c>
       <c r="I24" s="78" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J24" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K24" s="84" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L24" s="78"/>
       <c r="M24" s="80"/>
@@ -2977,37 +3470,37 @@
     </row>
     <row r="25" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B25" s="72">
         <v>0.6118055555555556</v>
       </c>
       <c r="C25" s="73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D25" s="74">
         <v>0.68958333333333333</v>
       </c>
       <c r="E25" s="75" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F25" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="82" t="s">
-        <v>29</v>
-      </c>
       <c r="H25" s="78" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I25" s="78" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J25" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K25" s="84" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L25" s="78"/>
       <c r="M25" s="80"/>
@@ -3017,37 +3510,37 @@
     </row>
     <row r="26" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B26" s="72">
         <v>0.65555555555555556</v>
       </c>
       <c r="C26" s="73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D26" s="74">
         <v>0.68263888888888891</v>
       </c>
       <c r="E26" s="75" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F26" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="78" t="s">
-        <v>40</v>
-      </c>
       <c r="I26" s="78" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="J26" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K26" s="84" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L26" s="78"/>
       <c r="M26" s="80"/>
@@ -3057,37 +3550,37 @@
     </row>
     <row r="27" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B27" s="72">
         <v>0.69930555555555551</v>
       </c>
       <c r="C27" s="73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D27" s="74">
         <v>0.72430555555555554</v>
       </c>
       <c r="E27" s="75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F27" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="78" t="s">
-        <v>57</v>
-      </c>
       <c r="I27" s="78" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J27" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K27" s="84" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L27" s="78"/>
       <c r="M27" s="80"/>
@@ -3097,17 +3590,19 @@
     </row>
     <row r="28" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B28" s="72">
         <v>0.72013888888888888</v>
       </c>
       <c r="C28" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="108"/>
+        <v>103</v>
+      </c>
+      <c r="D28" s="74">
+        <v>0.55277777777777781</v>
+      </c>
       <c r="E28" s="75" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F28" s="76" t="s">
         <v>18</v>
@@ -3119,13 +3614,13 @@
         <v>20</v>
       </c>
       <c r="I28" s="78" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="J28" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K28" s="84" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L28" s="78"/>
       <c r="M28" s="80"/>
@@ -3135,37 +3630,37 @@
     </row>
     <row r="29" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B29" s="72">
         <v>0.75</v>
       </c>
       <c r="C29" s="73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D29" s="74">
         <v>0.84513888888888888</v>
       </c>
       <c r="E29" s="75" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F29" s="91" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G29" s="92" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H29" s="78" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I29" s="78" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="J29" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K29" s="84" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L29" s="78"/>
       <c r="M29" s="80"/>
@@ -3175,37 +3670,37 @@
     </row>
     <row r="30" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B30" s="72">
         <v>0.75416666666666665</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D30" s="74">
         <v>0.75624999999999998</v>
       </c>
       <c r="E30" s="75" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F30" s="109" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G30" s="110" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H30" s="78" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I30" s="78" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="J30" s="79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K30" s="93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L30" s="78"/>
       <c r="M30" s="80"/>
@@ -3215,37 +3710,37 @@
     </row>
     <row r="31" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B31" s="72">
         <v>0.87847222222222221</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D31" s="74">
         <v>0.91874999999999996</v>
       </c>
       <c r="E31" s="75" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F31" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="78" t="s">
-        <v>40</v>
-      </c>
       <c r="I31" s="78" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="J31" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K31" s="84" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L31" s="78"/>
       <c r="M31" s="80"/>
@@ -3255,37 +3750,37 @@
     </row>
     <row r="32" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B32" s="72">
         <v>0.92777777777777781</v>
       </c>
       <c r="C32" s="73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D32" s="74">
         <v>0.92777777777777781</v>
       </c>
       <c r="E32" s="75" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F32" s="109" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G32" s="110" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H32" s="78" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I32" s="78" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="J32" s="79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K32" s="93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L32" s="78"/>
       <c r="M32" s="80"/>
@@ -3295,37 +3790,37 @@
     </row>
     <row r="33" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="94" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B33" s="95">
         <v>0.98541666666666672</v>
       </c>
       <c r="C33" s="96" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D33" s="97">
         <v>0.29583333333333334</v>
       </c>
       <c r="E33" s="98" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F33" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="102" t="s">
-        <v>57</v>
-      </c>
       <c r="I33" s="102" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J33" s="103" t="s">
         <v>9</v>
       </c>
       <c r="K33" s="100" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="L33" s="102"/>
       <c r="M33" s="105"/>
@@ -3335,77 +3830,85 @@
     </row>
     <row r="34" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="71" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B34" s="72">
         <v>7.4305555555555555E-2</v>
       </c>
       <c r="C34" s="73" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D34" s="74">
         <v>0.3125</v>
       </c>
       <c r="E34" s="75" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F34" s="76" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="77" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H34" s="78" t="s">
         <v>20</v>
       </c>
       <c r="I34" s="78" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="J34" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K34" s="89" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="L34" s="78"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="80"/>
+      <c r="M34" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="N34" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="O34" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="P34" s="79" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="35" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="71" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B35" s="72">
         <v>0.29791666666666666</v>
       </c>
       <c r="C35" s="73" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D35" s="74">
         <v>0.30555555555555558</v>
       </c>
       <c r="E35" s="75" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F35" s="91" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G35" s="92" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="I35" s="78" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="J35" s="79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K35" s="93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L35" s="78"/>
       <c r="M35" s="80"/>
@@ -3415,37 +3918,37 @@
     </row>
     <row r="36" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="71" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B36" s="72">
         <v>0.36666666666666664</v>
       </c>
       <c r="C36" s="73" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D36" s="74">
         <v>0.43958333333333333</v>
       </c>
       <c r="E36" s="75" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F36" s="91" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G36" s="92" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H36" s="78" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="I36" s="78" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="J36" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K36" s="84" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="L36" s="78"/>
       <c r="M36" s="80"/>
@@ -3455,37 +3958,37 @@
     </row>
     <row r="37" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="71" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B37" s="72">
         <v>0.41875000000000001</v>
       </c>
       <c r="C37" s="73" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D37" s="74">
         <v>0.47638888888888886</v>
       </c>
       <c r="E37" s="75" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F37" s="106" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G37" s="107" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H37" s="78" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I37" s="78" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="J37" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K37" s="84" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="L37" s="78"/>
       <c r="M37" s="80"/>
@@ -3495,77 +3998,85 @@
     </row>
     <row r="38" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="71" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B38" s="72">
         <v>0.4236111111111111</v>
       </c>
       <c r="C38" s="73" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D38" s="74">
         <v>0.43541666666666667</v>
       </c>
       <c r="E38" s="75" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F38" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="78" t="s">
-        <v>40</v>
-      </c>
       <c r="I38" s="78" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J38" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K38" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38" s="78"/>
+      <c r="M38" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="L38" s="78"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="80"/>
-      <c r="P38" s="80"/>
+      <c r="N38" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="O38" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="P38" s="79" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="39" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="71" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B39" s="72">
         <v>0.44722222222222224</v>
       </c>
       <c r="C39" s="73" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D39" s="74">
         <v>0.49166666666666664</v>
       </c>
       <c r="E39" s="75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F39" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="82" t="s">
-        <v>29</v>
-      </c>
       <c r="H39" s="78" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I39" s="78" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="J39" s="83" t="s">
         <v>9</v>
       </c>
       <c r="K39" s="84" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="L39" s="78"/>
       <c r="M39" s="80"/>
@@ -3574,17 +4085,39 @@
       <c r="P39" s="80"/>
     </row>
     <row r="40" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="71"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="112"/>
+      <c r="A40" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="72">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="C40" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="74">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="E40" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="J40" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="84" t="s">
+        <v>42</v>
+      </c>
       <c r="L40" s="78"/>
       <c r="M40" s="80"/>
       <c r="N40" s="80"/>
@@ -3592,35 +4125,79 @@
       <c r="P40" s="80"/>
     </row>
     <row r="41" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="71"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
-      <c r="P41" s="80"/>
+      <c r="A41" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="95">
+        <v>0.65</v>
+      </c>
+      <c r="C41" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="97">
+        <v>0.67291666666666672</v>
+      </c>
+      <c r="E41" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="113" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="J41" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="L41" s="102"/>
+      <c r="M41" s="105"/>
+      <c r="N41" s="105"/>
+      <c r="O41" s="105"/>
+      <c r="P41" s="105"/>
     </row>
     <row r="42" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="71"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="112"/>
+      <c r="A42" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="72">
+        <v>0.24791666666666667</v>
+      </c>
+      <c r="C42" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="74">
+        <v>0.25763888888888886</v>
+      </c>
+      <c r="E42" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="F42" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="J42" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="93" t="s">
+        <v>22</v>
+      </c>
       <c r="L42" s="78"/>
       <c r="M42" s="80"/>
       <c r="N42" s="80"/>
@@ -3628,17 +4205,39 @@
       <c r="P42" s="80"/>
     </row>
     <row r="43" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="71"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="112"/>
+      <c r="A43" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="72">
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="C43" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="74">
+        <v>0.37708333333333333</v>
+      </c>
+      <c r="E43" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="J43" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="84" t="s">
+        <v>155</v>
+      </c>
       <c r="L43" s="78"/>
       <c r="M43" s="80"/>
       <c r="N43" s="80"/>
@@ -3646,17 +4245,37 @@
       <c r="P43" s="80"/>
     </row>
     <row r="44" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="71"/>
-      <c r="B44" s="111"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="78"/>
+      <c r="A44" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="72">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="C44" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="74">
+        <v>0.46041666666666664</v>
+      </c>
+      <c r="E44" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="107" t="s">
+        <v>86</v>
+      </c>
       <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="112"/>
+      <c r="I44" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="J44" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="84" t="s">
+        <v>120</v>
+      </c>
       <c r="L44" s="78"/>
       <c r="M44" s="80"/>
       <c r="N44" s="80"/>
@@ -3664,35 +4283,87 @@
       <c r="P44" s="80"/>
     </row>
     <row r="45" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="71"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="112"/>
+      <c r="A45" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="72">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="C45" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="74">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="E45" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="J45" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="84" t="s">
+        <v>42</v>
+      </c>
       <c r="L45" s="78"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="80"/>
-      <c r="P45" s="80"/>
+      <c r="M45" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="N45" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="O45" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="P45" s="79" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="46" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="71"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="112"/>
+      <c r="A46" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="72">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="C46" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="74">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="E46" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="J46" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="84" t="s">
+        <v>50</v>
+      </c>
       <c r="L46" s="78"/>
       <c r="M46" s="80"/>
       <c r="N46" s="80"/>
@@ -3700,17 +4371,39 @@
       <c r="P46" s="80"/>
     </row>
     <row r="47" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="71"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="112"/>
+      <c r="A47" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="72">
+        <v>0.59375</v>
+      </c>
+      <c r="C47" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="74">
+        <v>0.60624999999999996</v>
+      </c>
+      <c r="E47" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="J47" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="84" t="s">
+        <v>120</v>
+      </c>
       <c r="L47" s="78"/>
       <c r="M47" s="80"/>
       <c r="N47" s="80"/>
@@ -3718,328 +4411,732 @@
       <c r="P47" s="80"/>
     </row>
     <row r="48" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="33"/>
+      <c r="A48" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="72">
+        <v>0.63263888888888886</v>
+      </c>
+      <c r="C48" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="74">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="E48" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="J48" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="L48" s="78"/>
+      <c r="M48" s="80"/>
+      <c r="N48" s="80"/>
+      <c r="O48" s="80"/>
+      <c r="P48" s="80"/>
     </row>
     <row r="49" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="27"/>
+      <c r="A49" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="72">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="C49" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="74">
+        <v>0.69652777777777775</v>
+      </c>
+      <c r="E49" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="I49" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="J49" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="L49" s="78"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
     </row>
     <row r="50" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="27"/>
+      <c r="A50" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="72">
+        <v>0.71319444444444446</v>
+      </c>
+      <c r="C50" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="74">
+        <v>0.83958333333333335</v>
+      </c>
+      <c r="E50" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="F50" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="H50" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="J50" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="L50" s="78"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="80"/>
     </row>
     <row r="51" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="27"/>
+      <c r="A51" s="94" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="95">
+        <v>0.83194444444444449</v>
+      </c>
+      <c r="C51" s="96" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="97">
+        <v>0.85277777777777775</v>
+      </c>
+      <c r="E51" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="H51" s="102"/>
+      <c r="I51" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="J51" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="L51" s="102"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105"/>
+      <c r="O51" s="105"/>
+      <c r="P51" s="105"/>
     </row>
     <row r="52" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="27"/>
+      <c r="A52" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="72">
+        <v>0.24374999999999999</v>
+      </c>
+      <c r="C52" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="74">
+        <v>0.49236111111111114</v>
+      </c>
+      <c r="E52" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="F52" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="H52" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="I52" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="J52" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="L52" s="78"/>
+      <c r="M52" s="80"/>
+      <c r="N52" s="80"/>
+      <c r="O52" s="80"/>
+      <c r="P52" s="80"/>
     </row>
     <row r="53" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="14"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="38"/>
+      <c r="A53" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="72">
+        <v>0.24791666666666667</v>
+      </c>
+      <c r="C53" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="74">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E53" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="F53" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="H53" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="J53" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" s="78"/>
+      <c r="M53" s="80"/>
+      <c r="N53" s="80"/>
+      <c r="O53" s="80"/>
+      <c r="P53" s="80"/>
     </row>
     <row r="54" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="27"/>
+      <c r="A54" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="72">
+        <v>0.40416666666666667</v>
+      </c>
+      <c r="C54" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="74">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E54" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="J54" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="78"/>
+      <c r="M54" s="80"/>
+      <c r="N54" s="80"/>
+      <c r="O54" s="80"/>
+      <c r="P54" s="80"/>
     </row>
     <row r="55" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="27"/>
+      <c r="A55" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="72">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="C55" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="74">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="E55" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="I55" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="J55" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" s="78"/>
+      <c r="M55" s="80"/>
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="80"/>
     </row>
     <row r="56" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="27"/>
+      <c r="A56" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="72">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="C56" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" s="74">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="E56" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="F56" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="I56" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="J56" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="L56" s="78"/>
+      <c r="M56" s="80"/>
+      <c r="N56" s="80"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="80"/>
     </row>
     <row r="57" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="27"/>
+      <c r="A57" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="72">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="C57" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="74">
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="E57" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="H57" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="J57" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="L57" s="78"/>
+      <c r="M57" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="N57" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="O57" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="P57" s="79" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="58" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="27"/>
+      <c r="A58" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="72">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="C58" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="74">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="E58" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="I58" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="J58" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="L58" s="78"/>
+      <c r="M58" s="80"/>
+      <c r="N58" s="80"/>
+      <c r="O58" s="80"/>
+      <c r="P58" s="80"/>
     </row>
     <row r="59" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="27"/>
+      <c r="A59" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="72">
+        <v>0.54236111111111107</v>
+      </c>
+      <c r="C59" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="74">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="E59" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="F59" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="J59" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="L59" s="78"/>
+      <c r="M59" s="80"/>
+      <c r="N59" s="80"/>
+      <c r="O59" s="80"/>
+      <c r="P59" s="80"/>
     </row>
     <row r="60" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="27"/>
+      <c r="A60" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="72">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C60" s="116"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="F60" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="I60" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="J60" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="111"/>
+      <c r="L60" s="78"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="80"/>
+      <c r="O60" s="80"/>
+      <c r="P60" s="80"/>
     </row>
     <row r="61" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="27"/>
+      <c r="A61" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="72">
+        <v>0.70902777777777781</v>
+      </c>
+      <c r="C61" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="74">
+        <v>0.73819444444444449</v>
+      </c>
+      <c r="E61" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="H61" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="I61" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="J61" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="L61" s="78"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="80"/>
     </row>
     <row r="62" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="27"/>
+      <c r="A62" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="72">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C62" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="74">
+        <v>0.73541666666666672</v>
+      </c>
+      <c r="E62" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="J62" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="L62" s="78"/>
+      <c r="M62" s="80"/>
+      <c r="N62" s="80"/>
+      <c r="O62" s="80"/>
+      <c r="P62" s="80"/>
     </row>
     <row r="63" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="27"/>
+      <c r="A63" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="72">
+        <v>0.76180555555555551</v>
+      </c>
+      <c r="C63" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="74">
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="E63" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="I63" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="J63" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="L63" s="78"/>
+      <c r="M63" s="80"/>
+      <c r="N63" s="80"/>
+      <c r="O63" s="80"/>
+      <c r="P63" s="80"/>
     </row>
     <row r="64" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="14"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="44"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="38"/>
+      <c r="A64" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" s="72">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="C64" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="74">
+        <v>0.83680555555555558</v>
+      </c>
+      <c r="E64" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="F64" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="H64" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="I64" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="J64" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K64" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="L64" s="78"/>
+      <c r="M64" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="N64" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="O64" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" s="79" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="65" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="27"/>
+      <c r="A65" s="94" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" s="95">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="C65" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="97">
+        <v>0.86875000000000002</v>
+      </c>
+      <c r="E65" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="113" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" s="102" t="s">
+        <v>193</v>
+      </c>
+      <c r="J65" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="K65" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="L65" s="102"/>
+      <c r="M65" s="105"/>
+      <c r="N65" s="105"/>
+      <c r="O65" s="105"/>
+      <c r="P65" s="105"/>
     </row>
     <row r="66" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
